--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/23.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/23.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3706286981278523</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.950442977530689</v>
+        <v>-1.94662057162869</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1332493249047064</v>
+        <v>0.1318666593626158</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1482625475033999</v>
+        <v>-0.1476011457182182</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.410029244127678</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.093512359934786</v>
+        <v>-2.089071623666288</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0696613104494507</v>
+        <v>0.06875900072926913</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1203566483418619</v>
+        <v>-0.1198222707405893</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.482957742453871</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.307069944071775</v>
+        <v>-2.30224156503514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05714285811799952</v>
+        <v>0.05609892373299981</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1440984903481282</v>
+        <v>-0.1434020474087648</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.5734573130533628</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.477344402553774</v>
+        <v>-2.472343007818367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001341280131559963</v>
+        <v>0.0009295465699237103</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1692083974155761</v>
+        <v>-0.1686681796219398</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.666511300964696</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.548447284532937</v>
+        <v>-2.542380784715212</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07468780410632871</v>
+        <v>-0.07421620857296521</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1717021595548481</v>
+        <v>-0.17157659541903</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.7458734941981855</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.345678725763719</v>
+        <v>-2.340591918214993</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1289942928476778</v>
+        <v>-0.12726267581186</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.147269714801582</v>
+        <v>-0.1470886688383093</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.8029767970601108</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.038882470541301</v>
+        <v>-2.033707330083075</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.180882941950482</v>
+        <v>-0.1784505018310281</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1156990949318632</v>
+        <v>-0.1157881578654086</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.8294047466545478</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.686052359060623</v>
+        <v>-1.680667701701352</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1102531155527737</v>
+        <v>-0.1079535398095925</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0731240926009655</v>
+        <v>-0.0732248359192382</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.8152114663006939</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.256123678115466</v>
+        <v>-1.250743400900467</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007305576582921998</v>
+        <v>0.008107142984830874</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01039896656743688</v>
+        <v>-0.01055957185743684</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.7499998595392637</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.945888279614913</v>
+        <v>-0.9394947290248238</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07450282991890396</v>
+        <v>0.07418745953126768</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01623477878679895</v>
+        <v>-0.01630778119134439</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.6266027711054426</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5841832658136464</v>
+        <v>-0.5766508777126484</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1482702996639751</v>
+        <v>0.1470745202775208</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02341675534597884</v>
+        <v>-0.02256116716470635</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.4484489793560081</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1442401150129464</v>
+        <v>-0.1351440154065852</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01204489268601163</v>
+        <v>0.01112214229255734</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04536611021672996</v>
+        <v>0.04615015604154793</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2288633298447875</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3066081349787507</v>
+        <v>0.3164079777649299</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1616424282084872</v>
+        <v>-0.1623870527348506</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1117252959485303</v>
+        <v>0.1132408258668935</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.01018003619637881</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8512396539937863</v>
+        <v>0.8609431336059655</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1763962141671196</v>
+        <v>-0.1794681553503915</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1936223134637811</v>
+        <v>0.1952152259309624</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2462665464702056</v>
       </c>
       <c r="E16" t="n">
-        <v>1.553270197401143</v>
+        <v>1.561465447335414</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5099485806794846</v>
+        <v>-0.5138089478318472</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2587141774526727</v>
+        <v>0.2603830124205813</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4689462831029425</v>
       </c>
       <c r="E17" t="n">
-        <v>2.261221235817135</v>
+        <v>2.267915556313951</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6748551723552585</v>
+        <v>-0.6792207161470755</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3683813096570069</v>
+        <v>0.3704983793888245</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6868837717881821</v>
       </c>
       <c r="E18" t="n">
-        <v>3.027895408449475</v>
+        <v>3.032661005418201</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9532016605022746</v>
+        <v>-0.9576635674680917</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4788821293212499</v>
+        <v>0.4814795548749765</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9131349368906668</v>
       </c>
       <c r="E19" t="n">
-        <v>3.660179454554123</v>
+        <v>3.663712770934122</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.192935716837119</v>
+        <v>-1.197418064476209</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5982950825323997</v>
+        <v>0.600975730827308</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.148021334915835</v>
       </c>
       <c r="E20" t="n">
-        <v>4.326797991564581</v>
+        <v>4.327434572532217</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.453530940294868</v>
+        <v>-1.457911084567594</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7085214131555518</v>
+        <v>0.7117539596288237</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.380131834495725</v>
       </c>
       <c r="E21" t="n">
-        <v>4.852802217035802</v>
+        <v>4.851969989623985</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.728066702924612</v>
+        <v>-1.73124522761852</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8567878367392393</v>
+        <v>0.8597283735943295</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.596657722966356</v>
       </c>
       <c r="E22" t="n">
-        <v>5.37515048208739</v>
+        <v>5.371770470756936</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.94788278320328</v>
+        <v>-1.950943044001825</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9430781389600343</v>
+        <v>0.9459880148052154</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.790992847179591</v>
       </c>
       <c r="E23" t="n">
-        <v>5.725071447746932</v>
+        <v>5.719854695918115</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.200016297950167</v>
+        <v>-2.202023864075167</v>
       </c>
       <c r="G23" t="n">
-        <v>1.051859021973187</v>
+        <v>1.055203992149459</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.960048267973732</v>
       </c>
       <c r="E24" t="n">
-        <v>6.152231877511727</v>
+        <v>6.14450822311082</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.432225266424469</v>
+        <v>-2.432883018089423</v>
       </c>
       <c r="G24" t="n">
-        <v>1.173527749484791</v>
+        <v>1.176190877202608</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.100131038452933</v>
       </c>
       <c r="E25" t="n">
-        <v>6.446654955187738</v>
+        <v>6.436707647544377</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.55577818599739</v>
+        <v>-2.556791459372481</v>
       </c>
       <c r="G25" t="n">
-        <v>1.247571168319044</v>
+        <v>1.250267877142952</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.208298231570859</v>
       </c>
       <c r="E26" t="n">
-        <v>6.615486156131875</v>
+        <v>6.602887401155423</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.604099937614104</v>
+        <v>-2.605292796904377</v>
       </c>
       <c r="G26" t="n">
-        <v>1.312819257453662</v>
+        <v>1.314924646800753</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.282775251419857</v>
       </c>
       <c r="E27" t="n">
-        <v>6.721657933206574</v>
+        <v>6.708127667548123</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.690228174496808</v>
+        <v>-2.690481492840581</v>
       </c>
       <c r="G27" t="n">
-        <v>1.32245557485366</v>
+        <v>1.324680688144205</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.322593811334356</v>
       </c>
       <c r="E28" t="n">
-        <v>6.909281413128796</v>
+        <v>6.893714380383527</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.716147678230665</v>
+        <v>-2.717215703409165</v>
       </c>
       <c r="G28" t="n">
-        <v>1.362898906971831</v>
+        <v>1.364718126893103</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.326380596096984</v>
       </c>
       <c r="E29" t="n">
-        <v>6.874526428372805</v>
+        <v>6.858061466051628</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738226525461386</v>
+        <v>-2.738501744526523</v>
       </c>
       <c r="G29" t="n">
-        <v>1.348990488857834</v>
+        <v>1.350691444883743</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.293486864144766</v>
       </c>
       <c r="E30" t="n">
-        <v>6.811169101515913</v>
+        <v>6.793998935966827</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.638947635423867</v>
+        <v>-2.639983539544367</v>
       </c>
       <c r="G30" t="n">
-        <v>1.332147374081112</v>
+        <v>1.333906732030657</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.22541610442401</v>
       </c>
       <c r="E31" t="n">
-        <v>6.839228305726997</v>
+        <v>6.820146937226911</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.538477346144167</v>
+        <v>-2.539997256206803</v>
       </c>
       <c r="G31" t="n">
-        <v>1.293942295686304</v>
+        <v>1.295500166999303</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.129257478281223</v>
       </c>
       <c r="E32" t="n">
-        <v>6.801255374978643</v>
+        <v>6.780746079445649</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.403584233049158</v>
+        <v>-2.405586689005839</v>
       </c>
       <c r="G32" t="n">
-        <v>1.24836835457668</v>
+        <v>1.249234163094588</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.012913388150117</v>
       </c>
       <c r="E33" t="n">
-        <v>6.636316662244869</v>
+        <v>6.614845195019966</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.369844711740394</v>
+        <v>-2.371585089064757</v>
       </c>
       <c r="G33" t="n">
-        <v>1.190261360654695</v>
+        <v>1.19131405532824</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.888157389847285</v>
       </c>
       <c r="E34" t="n">
-        <v>6.336253418793677</v>
+        <v>6.317014365099773</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.331695845197086</v>
+        <v>-2.334007101324995</v>
       </c>
       <c r="G34" t="n">
-        <v>1.140270774070072</v>
+        <v>1.141285507493254</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.762266001020443</v>
       </c>
       <c r="E35" t="n">
-        <v>6.141494683851184</v>
+        <v>6.121925659288735</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.295088059413732</v>
+        <v>-2.29643422375355</v>
       </c>
       <c r="G35" t="n">
-        <v>1.080886238068543</v>
+        <v>1.081899511443633</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.643410103268947</v>
       </c>
       <c r="E36" t="n">
-        <v>5.944919649083601</v>
+        <v>5.925179798894515</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.230033426651159</v>
+        <v>-2.23205851335325</v>
       </c>
       <c r="G36" t="n">
-        <v>1.060541927969821</v>
+        <v>1.060649971528548</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.534349953507324</v>
       </c>
       <c r="E37" t="n">
-        <v>5.63753280440841</v>
+        <v>5.618648542400597</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.186375068636807</v>
+        <v>-2.187666481173216</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9545701774835768</v>
+        <v>0.9551614969603948</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.438390867465765</v>
       </c>
       <c r="E38" t="n">
-        <v>5.331731571959947</v>
+        <v>5.313083837742861</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.140038252399683</v>
+        <v>-2.141540641885228</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8810348553849601</v>
+        <v>0.8818802232295962</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.353349535502938</v>
       </c>
       <c r="E39" t="n">
-        <v>5.01750586202694</v>
+        <v>4.998977851753309</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.081911547828472</v>
+        <v>-2.083373785991517</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7998883025884365</v>
+        <v>0.8010855420229815</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.278505829401749</v>
       </c>
       <c r="E40" t="n">
-        <v>4.726969432368928</v>
+        <v>4.708955359023296</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.103664074310875</v>
+        <v>-2.10449192157842</v>
       </c>
       <c r="G40" t="n">
-        <v>0.760461163941538</v>
+        <v>0.7610466432259924</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.209955382225869</v>
       </c>
       <c r="E41" t="n">
-        <v>4.404733898609196</v>
+        <v>4.387316984932746</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.997639032069312</v>
+        <v>-1.998331094864403</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6806534752443776</v>
+        <v>0.6814608818386501</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.146048467079863</v>
       </c>
       <c r="E42" t="n">
-        <v>4.024343189340479</v>
+        <v>4.008441805582393</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.906831341055246</v>
+        <v>-1.9078263638292</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6017860575177624</v>
+        <v>0.6024810404090349</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.083501138946847</v>
       </c>
       <c r="E43" t="n">
-        <v>3.721794944038561</v>
+        <v>3.706944794905929</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.854257929397805</v>
+        <v>-1.855154398925623</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5614887302086823</v>
+        <v>0.5621545121381366</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.021611300814216</v>
       </c>
       <c r="E44" t="n">
-        <v>3.418196924159279</v>
+        <v>3.40470169965501</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.759072284183149</v>
+        <v>-1.759967293662876</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5132531214293315</v>
+        <v>0.513567031768877</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9590206240081732</v>
       </c>
       <c r="E45" t="n">
-        <v>3.134982635677173</v>
+        <v>3.121779420791086</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.676610228056717</v>
+        <v>-1.677540278690625</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4175995308015391</v>
+        <v>0.4183718962416298</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8963853125595014</v>
       </c>
       <c r="E46" t="n">
-        <v>2.839105350102616</v>
+        <v>2.826762103542074</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.598795505003647</v>
+        <v>-1.599557650107101</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3796996024577311</v>
+        <v>0.3805245296290945</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.833133666267027</v>
       </c>
       <c r="E47" t="n">
-        <v>2.507335702309251</v>
+        <v>2.495919586286436</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.476231768012316</v>
+        <v>-1.477431927543043</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3160809269925663</v>
+        <v>0.3169175345486571</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7708462793059864</v>
       </c>
       <c r="E48" t="n">
-        <v>2.212290644146512</v>
+        <v>2.202347716647424</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.371211968881344</v>
+        <v>-1.373007828033162</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2887137855765737</v>
+        <v>0.2893313859190281</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7102814371201494</v>
       </c>
       <c r="E49" t="n">
-        <v>1.929488089226042</v>
+        <v>1.920600776496681</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.283743407851186</v>
+        <v>-1.285968521141731</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2347007665014973</v>
+        <v>0.2355548946346789</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.65316678102292</v>
       </c>
       <c r="E50" t="n">
-        <v>1.795460054624896</v>
+        <v>1.786705606271808</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.161179670859855</v>
+        <v>-1.164169849350036</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1972023513826892</v>
+        <v>0.1977732301862345</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5998736981075655</v>
       </c>
       <c r="E51" t="n">
-        <v>1.517221610036607</v>
+        <v>1.5098512872737</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.084949099985421</v>
+        <v>-1.087848755493966</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1667194673406974</v>
+        <v>0.1670800992191518</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5509432835206466</v>
       </c>
       <c r="E52" t="n">
-        <v>1.35680758633656</v>
+        <v>1.350481197958652</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.00221547491408</v>
+        <v>-1.005485982637715</v>
       </c>
       <c r="G52" t="n">
-        <v>0.143681368514249</v>
+        <v>0.1441588042399762</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5063378336526769</v>
       </c>
       <c r="E53" t="n">
-        <v>1.112665644815262</v>
+        <v>1.107499994669627</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9280260512707359</v>
+        <v>-0.9316630310651896</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1003851024264425</v>
+        <v>0.100776395314806</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4658023130684311</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9669513852944825</v>
+        <v>0.9624120957798473</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9358343884609157</v>
+        <v>-0.9392290002722784</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04967617218109244</v>
+        <v>0.0500222035786378</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4288966102745885</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8051196548981623</v>
+        <v>0.8007730917315271</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8893289366692918</v>
+        <v>-0.8925804637677455</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02123297532210008</v>
+        <v>0.0217571325867363</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3953828287652263</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6566970061687476</v>
+        <v>0.6534863604168394</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8394843548937597</v>
+        <v>-0.8433593225270314</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01516647550437443</v>
+        <v>0.01544534468973799</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3647884972229248</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5126194605578772</v>
+        <v>0.509791347405787</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8061777378439505</v>
+        <v>-0.8106878263967674</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01264744062743628</v>
+        <v>-0.01197143836134555</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3371126893215082</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4017025271877252</v>
+        <v>0.3993430894728167</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8011449520745881</v>
+        <v>-0.8053279898550416</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02839259923979569</v>
+        <v>-0.02795896495679581</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3115368986025651</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2555385728549462</v>
+        <v>0.2533952222574923</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7363480178000601</v>
+        <v>-0.7404244720698773</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09410206357114168</v>
+        <v>-0.09310631077314195</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2882636570021833</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1945917853961444</v>
+        <v>0.1927988463405086</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7195618448988829</v>
+        <v>-0.7238660666708817</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08097769128196339</v>
+        <v>-0.08005932103278182</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2668857259725331</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03629045128364149</v>
+        <v>0.03484792376982369</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6920837398279811</v>
+        <v>-0.6962375766466163</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1376947194214027</v>
+        <v>-0.1366639254692212</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2473754318375835</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05083207834897148</v>
+        <v>-0.05241915062378924</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7103737622627944</v>
+        <v>-0.714553879947066</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1691441552995761</v>
+        <v>-0.1683747099556672</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2284738653051771</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1448474950187644</v>
+        <v>-0.1459863325296732</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7444264638870579</v>
+        <v>-0.7483466930111479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1843607765030265</v>
+        <v>-0.1834278057729359</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2099253335942918</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2572317767202797</v>
+        <v>-0.2587078853401884</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7471479935285118</v>
+        <v>-0.7512346681349652</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2177564564863812</v>
+        <v>-0.2170030716714723</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1910429704436292</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4107207923251476</v>
+        <v>-0.4118800705093291</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.727618390264517</v>
+        <v>-0.7321065780959704</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2380730256713758</v>
+        <v>-0.2373400815297396</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1716286551465029</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4334873222066869</v>
+        <v>-0.4351911983287773</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7584852669544179</v>
+        <v>-0.7628668712752348</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2530020174009172</v>
+        <v>-0.2526340852820082</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1512580026661972</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5210288856413907</v>
+        <v>-0.5223750499812085</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.7989417395054069</v>
+        <v>-0.8031612784881331</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.267573297348186</v>
+        <v>-0.2672988083070952</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1288604891001936</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5529572172933821</v>
+        <v>-0.5549239020718362</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7459215531321485</v>
+        <v>-0.7515164574165106</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3199320819362629</v>
+        <v>-0.3189085882245359</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1034627431371414</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6337723391732695</v>
+        <v>-0.63518712577336</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7923890436734087</v>
+        <v>-0.7975400933381346</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3173959784023545</v>
+        <v>-0.3169243828689909</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.07421062892065115</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7438395245545126</v>
+        <v>-0.7450221635081488</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7873562579040464</v>
+        <v>-0.7933658158462267</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3579502741754345</v>
+        <v>-0.3570830056094347</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.04050632057897823</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7717804648702324</v>
+        <v>-0.7730258858917776</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9178772569908296</v>
+        <v>-0.9230166262708281</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4035198351407859</v>
+        <v>-0.4021970315704226</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.002700761733521599</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8144430700865846</v>
+        <v>-0.8159001980813115</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9844350092629935</v>
+        <v>-0.9895480976773557</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.420725041844054</v>
+        <v>-0.4195643036117815</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.03858746773650464</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8674530361232068</v>
+        <v>-0.8681319584854793</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.01988935705453</v>
+        <v>-1.024635973398074</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4542696467326813</v>
+        <v>-0.4528869811905908</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.08127951462285762</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8106586254349493</v>
+        <v>-0.8111375212087674</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.044581690367977</v>
+        <v>-1.04943781031834</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4687533237944956</v>
+        <v>-0.4673137163768596</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1236261984314832</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7956697717336806</v>
+        <v>-0.7957544545229532</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.111653379568141</v>
+        <v>-1.115706473068504</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4576963796020441</v>
+        <v>-0.4563618956469535</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1636352064494725</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7124236697824302</v>
+        <v>-0.7123769482435212</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.155234355033675</v>
+        <v>-1.158542824007674</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4600251563070434</v>
+        <v>-0.4588395972572256</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1998063360234792</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5598661648595621</v>
+        <v>-0.5605421671256527</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.138321157948589</v>
+        <v>-1.142182985149042</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4412927393006848</v>
+        <v>-0.4400473182791397</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2306652538503509</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4197818507773269</v>
+        <v>-0.4209601095866903</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.163772716269309</v>
+        <v>-1.167057824473854</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4547792035164085</v>
+        <v>-0.4529278625371362</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2548617437275018</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3167915184927182</v>
+        <v>-0.3181698038905361</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.24722906514565</v>
+        <v>-1.250003156518377</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3976606621519693</v>
+        <v>-0.3961743331954242</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2705312245374045</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1275911866323145</v>
+        <v>-0.1288672686637687</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.305289337528726</v>
+        <v>-1.307412247452907</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3754066091503389</v>
+        <v>-0.3738355974045211</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.275525610322822</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03177160244227906</v>
+        <v>0.03000640430037045</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.299491486559727</v>
+        <v>-1.300529580752363</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3244144295753525</v>
+        <v>-0.3236595847123528</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2683059822464357</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2441458176015857</v>
+        <v>0.2420126873407681</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.288495864387094</v>
+        <v>-1.28881123477473</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2882548785559078</v>
+        <v>-0.2875525954241807</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2480355897545937</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4264751631461731</v>
+        <v>0.4243887544242645</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.22926463343511</v>
+        <v>-1.22953766242811</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2705065339628216</v>
+        <v>-0.2698801733318217</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.215611598653058</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6318207067958452</v>
+        <v>0.6301182907218457</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.151137460090585</v>
+        <v>-1.151790101587221</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.24588866310201</v>
+        <v>-0.2453207043946465</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1730318230302608</v>
       </c>
       <c r="E85" t="n">
-        <v>0.744196228208815</v>
+        <v>0.7433099790176334</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.061877420052882</v>
+        <v>-1.063131601362972</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2099481192962015</v>
+        <v>-0.2096707101589288</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1240077425203562</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9706350866278451</v>
+        <v>0.968894709303482</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.997220650395081</v>
+        <v>-0.9981127397786262</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1813968788784819</v>
+        <v>-0.180899002479482</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.07341014332366129</v>
       </c>
       <c r="E87" t="n">
-        <v>1.113461371024807</v>
+        <v>1.111713693459989</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9423009414555503</v>
+        <v>-0.9429214618941865</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1513593095042172</v>
+        <v>-0.1506774670457628</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.02712596959005864</v>
       </c>
       <c r="E88" t="n">
-        <v>1.214171108191416</v>
+        <v>1.212998689574416</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.888236820697292</v>
+        <v>-0.8884602080552011</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.115205598677136</v>
+        <v>-0.1144434535736817</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.009417272008122386</v>
       </c>
       <c r="E89" t="n">
-        <v>1.336272009937929</v>
+        <v>1.334995927906474</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7940038568619537</v>
+        <v>-0.7929745229578631</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1136521075084092</v>
+        <v>-0.1129542045209548</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03217529165034096</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371235781570919</v>
+        <v>1.370856169067283</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6939277805667988</v>
+        <v>-0.6928225241619809</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07902122684014573</v>
+        <v>-0.07863431409605492</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03831587137184821</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415218270261453</v>
+        <v>1.41532631382018</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5896905672125541</v>
+        <v>-0.588218838736918</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01629610080661712</v>
+        <v>-0.01644064556761708</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.02891413442356425</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438162926010083</v>
+        <v>1.438098683894083</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4631540393658607</v>
+        <v>-0.4613158388194067</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02118142171879762</v>
+        <v>-0.02106461787152493</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.006840729118331376</v>
       </c>
       <c r="E93" t="n">
-        <v>1.408423206446364</v>
+        <v>1.408893341931637</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3553382481407988</v>
+        <v>-0.3533219217272539</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01431627559534492</v>
+        <v>-0.01419947174807223</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.0224810725752622</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409649646842727</v>
+        <v>1.409592704967182</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2150801883357455</v>
+        <v>-0.2133091500014733</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01654284893398069</v>
+        <v>-0.01674287552243518</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05492872549580825</v>
       </c>
       <c r="E95" t="n">
-        <v>1.334181221071747</v>
+        <v>1.334299484967111</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09851286885377686</v>
+        <v>-0.09682505326068641</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01876212203216191</v>
+        <v>-0.01890228664888914</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08848268596498464</v>
       </c>
       <c r="E96" t="n">
-        <v>1.256614706194132</v>
+        <v>1.256509582731587</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02936544318846153</v>
+        <v>0.0304181378620067</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03385171905170331</v>
+        <v>-0.03385755924406695</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1228001309091251</v>
       </c>
       <c r="E97" t="n">
-        <v>1.173167117606336</v>
+        <v>1.173502928667245</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1313979839254341</v>
+        <v>0.1317148143611613</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05222204413151656</v>
+        <v>-0.05222496422769838</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1593791928870335</v>
       </c>
       <c r="E98" t="n">
-        <v>1.074145196032817</v>
+        <v>1.074974503348453</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1928441078313267</v>
+        <v>0.1929331707648722</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05747821725878788</v>
+        <v>-0.05721832869860613</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.198290975742846</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9368977553912179</v>
+        <v>0.9377445832839448</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1942866353451445</v>
+        <v>0.1942121728925082</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05040574430642614</v>
+        <v>-0.0509853833985169</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2408607880283962</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8416734189021525</v>
+        <v>0.8428049561726068</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2114611810385035</v>
+        <v>0.2110874087272309</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04468819598242767</v>
+        <v>-0.04496560511970033</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2835327889244723</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6875390620411029</v>
+        <v>0.6894371245592843</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1970563465735983</v>
+        <v>0.1969512231110529</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04868580765533569</v>
+        <v>-0.04881721198351748</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3261025460942484</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6287867268629369</v>
+        <v>0.6303883996186638</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2068722498887775</v>
+        <v>0.2063305720470504</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08088862834841795</v>
+        <v>-0.08096163075296339</v>
       </c>
     </row>
   </sheetData>
